--- a/0019-The-Sentinel-Stack/Manual Testing & Documents/Test Scenarios StyleMate.xlsx
+++ b/0019-The-Sentinel-Stack/Manual Testing & Documents/Test Scenarios StyleMate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RKC-Nagaur\Downloads\StyleMate Manual Testing &amp; Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing &amp; Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A79901-50B8-4D6C-8A43-3BAD24B236B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D337F6-5897-4C40-A15F-07AEB0216AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" xr2:uid="{7E3B8470-7AD7-43BA-A5A4-27EF5D464785}"/>
   </bookViews>
@@ -132,10 +132,10 @@
     <t>User &amp; Account Management</t>
   </si>
   <si>
-    <t>TOTAL TEST CASES - 28</t>
-  </si>
-  <si>
     <t>Verify the functionality on home page.</t>
+  </si>
+  <si>
+    <t>TOTAL TEST CASES - 29</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5">
         <v>6</v>
@@ -750,13 +750,13 @@
         <v>28</v>
       </c>
       <c r="E16" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="5:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
